--- a/data/tables/data_all.xlsx
+++ b/data/tables/data_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2166F4EF-B9F6-4AEE-AE9C-18098C7D6B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8941164-8766-4175-A137-032015BEA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#uniques" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="22">
   <si>
     <t>Franklin</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>uniques after</t>
-  </si>
-  <si>
-    <t>plb=1.60</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16:AC16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2252,13 +2249,13 @@
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>3.55995315246555E-4</v>
+        <v>3.7475105657439002E-4</v>
       </c>
       <c r="P7" s="2">
-        <v>2.0518211458240699E-3</v>
+        <v>2.1758079950692701E-3</v>
       </c>
       <c r="Q7" s="2">
-        <v>2.8477042368081902E-3</v>
+        <v>3.0165179840162702E-3</v>
       </c>
       <c r="S7" t="s">
         <v>9</v>
@@ -2321,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="O8" s="2">
-        <v>4.5438668288122199E-3</v>
+        <v>4.5925519793511196E-3</v>
       </c>
       <c r="P8" s="2">
-        <v>2.2169137379299101E-2</v>
+        <v>2.4114532314920702E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>3.0264213406373398E-2</v>
+        <v>3.3226901147071899E-2</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
@@ -2384,13 +2381,13 @@
         <v>7</v>
       </c>
       <c r="O9" s="2">
-        <v>4.4003731685735299E-2</v>
+        <v>4.8105747514549102E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>9.9419420495059002E-2</v>
+        <v>0.20003655579817201</v>
       </c>
       <c r="Q9" s="2">
-        <v>8.2665672123030304E-2</v>
+        <v>0.24351843980000101</v>
       </c>
       <c r="T9" t="s">
         <v>7</v>
@@ -3012,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D702D47-6D24-47CF-969D-CEEE1D705472}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16:AC16"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3347,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0.38292492254802601</v>
+        <v>1.0080173769149599E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.38292492254802601</v>
+        <v>1.0080173769149599E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.38292492254802601</v>
+        <v>1.0080173769149599E-2</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s">
@@ -3363,13 +3360,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.18686781346737E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.18686781346737E-2</v>
       </c>
       <c r="K7" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.18686781346737E-2</v>
       </c>
       <c r="M7" t="s">
         <v>9</v>
@@ -3378,13 +3375,13 @@
         <v>1</v>
       </c>
       <c r="O7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.12696796416418199</v>
       </c>
       <c r="P7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.12696796416418199</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.12696796416418199</v>
       </c>
       <c r="S7" t="s">
         <v>9</v>
@@ -3393,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="U7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.31049058423348502</v>
       </c>
       <c r="V7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.31049058423348502</v>
       </c>
       <c r="W7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.31049058423348502</v>
       </c>
       <c r="Y7" t="s">
         <v>9</v>
@@ -3408,13 +3405,13 @@
         <v>1</v>
       </c>
       <c r="AA7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.79355320928183204</v>
       </c>
       <c r="AB7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.79355320928183204</v>
       </c>
       <c r="AC7" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.79355320928183204</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
@@ -3422,62 +3419,62 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.85443930365342E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.85443930365342E-3</v>
       </c>
       <c r="E8" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.85443930365342E-3</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0263563903763E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0263563903763E-3</v>
       </c>
       <c r="K8" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0263563903763E-3</v>
       </c>
       <c r="N8" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.6093878959560899E-2</v>
       </c>
       <c r="P8" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.6093878959560899E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.6093878959560899E-2</v>
       </c>
       <c r="T8" t="s">
         <v>6</v>
       </c>
       <c r="U8" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0073351600582496E-2</v>
       </c>
       <c r="V8" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0073351600582496E-2</v>
       </c>
       <c r="W8" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0073351600582496E-2</v>
       </c>
       <c r="Z8" t="s">
         <v>6</v>
       </c>
       <c r="AA8" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.27947201184512099</v>
       </c>
       <c r="AB8" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.27947201184512099</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.27947201184512099</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
@@ -3485,62 +3482,62 @@
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.0832723086510701E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.0832723086510701E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.0832723086510701E-3</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5878181702723696E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5878181702723696E-3</v>
       </c>
       <c r="K9" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5878181702723696E-3</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
       </c>
       <c r="O9" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.6346785980819701E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.6346785980819701E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.6346785980819701E-2</v>
       </c>
       <c r="T9" t="s">
         <v>7</v>
       </c>
       <c r="U9" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5804214547143997E-2</v>
       </c>
       <c r="V9" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5804214547143997E-2</v>
       </c>
       <c r="W9" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5804214547143997E-2</v>
       </c>
       <c r="Z9" t="s">
         <v>7</v>
       </c>
       <c r="AA9" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.205986295917716</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.205986295917716</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.205986295917716</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
@@ -3896,13 +3893,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>0.38292492254802601</v>
+        <v>1.0080173769149599E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.38292492254802601</v>
+        <v>1.0080173769149599E-2</v>
       </c>
       <c r="E17" s="2">
-        <v>0.38292492254802601</v>
+        <v>1.0080173769149599E-2</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s">
@@ -3912,13 +3909,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.18686781346737E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.18686781346737E-2</v>
       </c>
       <c r="K17" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.18686781346737E-2</v>
       </c>
       <c r="M17" t="s">
         <v>9</v>
@@ -3927,13 +3924,13 @@
         <v>1</v>
       </c>
       <c r="O17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.12696796416418199</v>
       </c>
       <c r="P17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.12696796416418199</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.12696796416418199</v>
       </c>
       <c r="S17" t="s">
         <v>9</v>
@@ -3942,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.31049058423348502</v>
       </c>
       <c r="V17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.31049058423348502</v>
       </c>
       <c r="W17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.31049058423348502</v>
       </c>
       <c r="Y17" t="s">
         <v>9</v>
@@ -3957,13 +3954,13 @@
         <v>1</v>
       </c>
       <c r="AA17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.79355320928183204</v>
       </c>
       <c r="AB17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.79355320928183204</v>
       </c>
       <c r="AC17" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.79355320928183204</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
@@ -3971,62 +3968,62 @@
         <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.85443930365342E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.85443930365342E-3</v>
       </c>
       <c r="E18" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.85443930365342E-3</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0263563903763E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0263563903763E-3</v>
       </c>
       <c r="K18" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0263563903763E-3</v>
       </c>
       <c r="N18" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.6093878959560899E-2</v>
       </c>
       <c r="P18" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.6093878959560899E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.38292492254802601</v>
+        <v>3.6093878959560899E-2</v>
       </c>
       <c r="T18" t="s">
         <v>6</v>
       </c>
       <c r="U18" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0073351600582496E-2</v>
       </c>
       <c r="V18" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0073351600582496E-2</v>
       </c>
       <c r="W18" s="2">
-        <v>0.38292492254802601</v>
+        <v>9.0073351600582496E-2</v>
       </c>
       <c r="Z18" t="s">
         <v>6</v>
       </c>
       <c r="AA18" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.27947201184512099</v>
       </c>
       <c r="AB18" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.27947201184512099</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.27947201184512099</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
@@ -4034,62 +4031,62 @@
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.0832723086510701E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.0832723086510701E-3</v>
       </c>
       <c r="E19" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.0832723086510701E-3</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5878181702723696E-3</v>
       </c>
       <c r="J19" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5878181702723696E-3</v>
       </c>
       <c r="K19" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5878181702723696E-3</v>
       </c>
       <c r="N19" t="s">
         <v>7</v>
       </c>
       <c r="O19" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.6346785980819701E-2</v>
       </c>
       <c r="P19" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.6346785980819701E-2</v>
       </c>
       <c r="Q19" s="2">
-        <v>0.38292492254802601</v>
+        <v>2.6346785980819701E-2</v>
       </c>
       <c r="T19" t="s">
         <v>7</v>
       </c>
       <c r="U19" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5804214547143997E-2</v>
       </c>
       <c r="V19" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5804214547143997E-2</v>
       </c>
       <c r="W19" s="2">
-        <v>0.38292492254802601</v>
+        <v>6.5804214547143997E-2</v>
       </c>
       <c r="Z19" t="s">
         <v>7</v>
       </c>
       <c r="AA19" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.205986295917716</v>
       </c>
       <c r="AB19" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.205986295917716</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.38292492254802601</v>
+        <v>0.205986295917716</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
@@ -4124,606 +4121,812 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0837C373-5E78-45C7-A2C7-C7C38E5AAB50}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>5</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
         <v>8</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AA3" t="s">
         <v>3</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AB3" t="s">
         <v>4</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AC3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>8.3713692847272994E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.70256174718848097</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.82534884597524805</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.141490834809918</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>0.84298800854762401</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>0.91224108119552505</v>
       </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
         <v>0.20307892195444499</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="2">
         <v>0.93585212818347197</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="2">
         <v>0.96639025730434303</v>
       </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
         <v>0.227238610408349</v>
       </c>
-      <c r="R4" s="2">
+      <c r="V4" s="2">
         <v>0.96643612816270397</v>
       </c>
-      <c r="S4" s="2">
+      <c r="W4" s="2">
         <v>0.98315726738208298</v>
       </c>
-      <c r="U4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
         <v>0.23816694311178299</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AB4" s="2">
         <v>0.98688806228781401</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AC4" s="2">
         <v>0.99378044624860096</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
         <v>8.9442039706810805E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>0.74069015097052404</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.86363803848260701</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.14933133902371401</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>0.87362072882812503</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>0.93552946338899701</v>
       </c>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2">
         <v>0.21256236564581901</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="2">
         <v>0.949739023615086</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="2">
         <v>0.97557120450523005</v>
       </c>
-      <c r="P5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="2">
         <v>0.23653904975391599</v>
       </c>
-      <c r="R5" s="2">
+      <c r="V5" s="2">
         <v>0.97394007987615205</v>
       </c>
-      <c r="S5" s="2">
+      <c r="W5" s="2">
         <v>0.987595983977127</v>
       </c>
-      <c r="U5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="2">
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="2">
         <v>0.24685591010014701</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AB5" s="2">
         <v>0.98960102591089305</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AC5" s="2">
         <v>0.99519264906601101</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.11963058450940101</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>0.81121381984167096</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.90775634599458799</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.185371325957297</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>0.91003775560984201</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>0.95676418296427901</v>
       </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="2">
         <v>0.23824036646337801</v>
       </c>
-      <c r="M6" s="2">
+      <c r="P6" s="2">
         <v>0.96654146934480001</v>
       </c>
-      <c r="N6" s="2">
+      <c r="Q6" s="2">
         <v>0.98517067418395898</v>
       </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="2">
         <v>0.25217905107091598</v>
       </c>
-      <c r="R6" s="2">
+      <c r="V6" s="2">
         <v>0.983381929787564</v>
       </c>
-      <c r="S6" s="2">
+      <c r="W6" s="2">
         <v>0.99312396393145996</v>
       </c>
-      <c r="U6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="2">
+      <c r="Z6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="2">
         <v>0.256387171064071</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AB6" s="2">
         <v>0.99372630501965598</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AC6" s="2">
         <v>0.99761447115511204</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="Z9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O12" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="U12" t="s">
         <v>13</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V9" t="s">
+      <c r="AA12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I13" t="s">
         <v>3</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K13" t="s">
         <v>5</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N13" t="s">
         <v>8</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P13" t="s">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q13" t="s">
         <v>5</v>
       </c>
-      <c r="P10" t="s">
+      <c r="T13" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="U13" t="s">
         <v>3</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V13" t="s">
         <v>4</v>
       </c>
-      <c r="S10" t="s">
+      <c r="W13" t="s">
         <v>5</v>
       </c>
-      <c r="U10" t="s">
+      <c r="Z13" t="s">
         <v>8</v>
       </c>
-      <c r="V10" t="s">
+      <c r="AA13" t="s">
         <v>3</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AB13" t="s">
         <v>4</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AC13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>3.9327686954238002E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D14" s="2">
         <v>0.77557933463445194</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E14" s="2">
         <v>0.89553597087843595</v>
       </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>6.3101058400042903E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J14" s="2">
         <v>0.89182083273579005</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K14" s="2">
         <v>0.93795602565985903</v>
       </c>
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
         <v>0.117385473282981</v>
       </c>
-      <c r="M11" s="2">
+      <c r="P14" s="2">
         <v>0.95171869605957404</v>
       </c>
-      <c r="N11" s="2">
+      <c r="Q14" s="2">
         <v>0.97214331987840696</v>
       </c>
-      <c r="P11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
         <v>0.14509338695910001</v>
       </c>
-      <c r="R11" s="2">
+      <c r="V14" s="2">
         <v>0.96890547263681503</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W14" s="2">
         <v>0.98132572344047198</v>
       </c>
-      <c r="U11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
         <v>0.16534157832744401</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AB14" s="2">
         <v>0.98759479684596396</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AC14" s="2">
         <v>0.99325090029968</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
         <v>4.0489023268042497E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D15" s="2">
         <v>0.79914986475120997</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E15" s="2">
         <v>0.90681538943361595</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
         <v>6.54623285366214E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J15" s="2">
         <v>0.90621839025095097</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K15" s="2">
         <v>0.95340457563118497</v>
       </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2">
         <v>0.120247968975571</v>
       </c>
-      <c r="M12" s="2">
+      <c r="P15" s="2">
         <v>0.96246156897748603</v>
       </c>
-      <c r="N12" s="2">
+      <c r="Q15" s="2">
         <v>0.98018563458507402</v>
       </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="2">
         <v>0.14866629901605</v>
       </c>
-      <c r="R12" s="2">
+      <c r="V15" s="2">
         <v>0.97884894244712195</v>
       </c>
-      <c r="S12" s="2">
+      <c r="W15" s="2">
         <v>0.98779446481490696</v>
       </c>
-      <c r="U12" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" s="2">
+      <c r="Z15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="2">
         <v>0.170200183328897</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AB15" s="2">
         <v>0.98964329705135601</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AC15" s="2">
         <v>0.99480820605877296</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
         <v>5.7419975418158499E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D16" s="2">
         <v>0.87835208125682196</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E16" s="2">
         <v>0.92583761162071998</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
         <v>8.6971448974827295E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J16" s="2">
         <v>0.934734783671474</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K16" s="2">
         <v>0.96812214044161504</v>
       </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="2">
         <v>0.15117226132992001</v>
       </c>
-      <c r="M13" s="2">
+      <c r="P16" s="2">
         <v>0.97682259796698201</v>
       </c>
-      <c r="N13" s="2">
+      <c r="Q16" s="2">
         <v>0.98854357711730201</v>
       </c>
-      <c r="P13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="2">
         <v>0.1717940366565</v>
       </c>
-      <c r="R13" s="2">
+      <c r="V16" s="2">
         <v>0.98614840280043103</v>
       </c>
-      <c r="S13" s="2">
+      <c r="W16" s="2">
         <v>0.99289958706818404</v>
       </c>
-      <c r="U13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" s="2">
+      <c r="Z16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="2">
         <v>0.181943075590598</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AB16" s="2">
         <v>0.99420508944318398</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AC16" s="2">
         <v>0.99747634069400604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4734,589 +4937,827 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90C929-9E3E-457B-8958-30D4BFDCDF7C}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>4</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>5</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
         <v>8</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AA3" t="s">
         <v>3</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AB3" t="s">
         <v>4</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AC3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>4.1818914034260503E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.22235979134231601</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.38035854012966602</v>
       </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>3.7198773606816997E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>0.10843578318211899</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>0.18243838028168999</v>
       </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
         <v>3.27625208791422E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="P4" s="2">
         <v>4.2176679014334001E-2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Q4" s="2">
         <v>6.7945869662418903E-2</v>
       </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
         <v>3.11438658088312E-2</v>
       </c>
-      <c r="R4" s="2">
+      <c r="V4" s="2">
         <v>2.1724736493620299E-2</v>
       </c>
-      <c r="S4" s="2">
+      <c r="W4" s="2">
         <v>3.3761597361949398E-2</v>
       </c>
-      <c r="U4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
         <v>3.0432436416840101E-2</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AB4" s="2">
         <v>8.3995454626796199E-3</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AC4" s="2">
         <v>1.24007936507936E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.66142341162055496</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>3.0337502907965099</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>4.6539235412474804</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.58572165686859401</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>1.37365115155419</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>2.1186004918399202</v>
       </c>
-      <c r="K5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="2">
         <v>0.51391131527817702</v>
       </c>
-      <c r="M5" s="2">
+      <c r="P5" s="2">
         <v>0.52497270986560696</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Q5" s="2">
         <v>0.78649675832774402</v>
       </c>
-      <c r="P5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="2">
         <v>0.48860183110599298</v>
       </c>
-      <c r="R5" s="2">
+      <c r="V5" s="2">
         <v>0.268857035486122</v>
       </c>
-      <c r="S5" s="2">
+      <c r="W5" s="2">
         <v>0.39693717862731898</v>
       </c>
-      <c r="U5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="2">
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="2">
         <v>0.47801101222637998</v>
       </c>
-      <c r="W5" s="2">
+      <c r="AB5" s="2">
         <v>0.106440471716683</v>
       </c>
-      <c r="X5" s="2">
+      <c r="AC5" s="2">
         <v>0.153252850435949</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>11.200535729932</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>38.2080850378482</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>55.357142857142797</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2">
         <v>9.7893504900426809</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>17.265260106297301</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>25.296780684104601</v>
       </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="2">
         <v>8.7631773291109099</v>
       </c>
-      <c r="M6" s="2">
+      <c r="P6" s="2">
         <v>6.23675310033821</v>
       </c>
-      <c r="N6" s="2">
+      <c r="Q6" s="2">
         <v>8.5523138832997994</v>
       </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="2">
         <v>8.5070658772577605</v>
       </c>
-      <c r="R6" s="2">
+      <c r="V6" s="2">
         <v>3.0713480431631499</v>
       </c>
-      <c r="S6" s="2">
+      <c r="W6" s="2">
         <v>3.9496981891348</v>
       </c>
-      <c r="U6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="2">
+      <c r="Z6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="2">
         <v>8.4308620495424993</v>
       </c>
-      <c r="W6" s="2">
+      <c r="AB6" s="2">
         <v>1.15348687389273</v>
       </c>
-      <c r="X6" s="2">
+      <c r="AC6" s="2">
         <v>1.3672032193158901</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="Z9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O12" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U12" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AA12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H13" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I13" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J13" t="s">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K13" t="s">
         <v>5</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N13" t="s">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P13" t="s">
         <v>4</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q13" t="s">
         <v>5</v>
       </c>
-      <c r="P9" t="s">
+      <c r="T13" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="U13" t="s">
         <v>3</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V13" t="s">
         <v>4</v>
       </c>
-      <c r="S9" t="s">
+      <c r="W13" t="s">
         <v>5</v>
       </c>
-      <c r="U9" t="s">
+      <c r="Z13" t="s">
         <v>8</v>
       </c>
-      <c r="V9" t="s">
+      <c r="AA13" t="s">
         <v>3</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AB13" t="s">
         <v>4</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AC13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>9.6284644573315301E-3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D14" s="2">
         <v>0.14178004535147301</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E14" s="2">
         <v>0.21636904761904699</v>
       </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>9.1802065302993893E-3</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J14" s="2">
         <v>6.41439909297052E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K14" s="2">
         <v>0.125694444444444</v>
       </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
         <v>8.2281519665441099E-3</v>
       </c>
-      <c r="M10" s="2">
+      <c r="P14" s="2">
         <v>2.7749433106575901E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="Q14" s="2">
         <v>5.5456349206349197E-2</v>
       </c>
-      <c r="P10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="2">
         <v>7.7769986565422999E-3</v>
       </c>
-      <c r="R10" s="2">
+      <c r="V14" s="2">
         <v>1.77154195011337E-2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="W14" s="2">
         <v>3.7003968253968199E-2</v>
       </c>
-      <c r="U10" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="2">
         <v>7.4608754795807003E-3</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AB14" s="2">
         <v>7.0011337868480699E-3</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AC14" s="2">
         <v>1.32936507936507E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.15369745669559901</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D15" s="2">
         <v>2.0036281179138302</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E15" s="2">
         <v>3.06984126984127</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
         <v>0.14618841257206799</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J15" s="2">
         <v>0.88299319727891101</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K15" s="2">
         <v>1.49841269841269</v>
       </c>
-      <c r="K11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2">
         <v>0.13088815609377999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="P15" s="2">
         <v>0.34331065759637103</v>
       </c>
-      <c r="N11" s="2">
+      <c r="Q15" s="2">
         <v>0.628571428571428</v>
       </c>
-      <c r="P11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="2">
         <v>0.123526513285069</v>
       </c>
-      <c r="R11" s="2">
+      <c r="V15" s="2">
         <v>0.19183673469387699</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W15" s="2">
         <v>0.38571428571428501</v>
       </c>
-      <c r="U11" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="Z15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="2">
         <v>0.11818637422245799</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AB15" s="2">
         <v>9.3424036281179096E-2</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AC15" s="2">
         <v>0.16349206349206299</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
         <v>2.6742220369177101</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D16" s="2">
         <v>20.922448979591799</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E16" s="2">
         <v>43.542857142857102</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
         <v>2.5199560322935199</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J16" s="2">
         <v>10.8979591836734</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K16" s="2">
         <v>18.314285714285699</v>
       </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="2">
         <v>2.2121062805594498</v>
       </c>
-      <c r="M12" s="2">
+      <c r="P16" s="2">
         <v>3.7877551020408098</v>
       </c>
-      <c r="N12" s="2">
+      <c r="Q16" s="2">
         <v>6.5142857142857098</v>
       </c>
-      <c r="P12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="2">
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="2">
         <v>2.1203805480801998</v>
       </c>
-      <c r="R12" s="2">
+      <c r="V16" s="2">
         <v>2.2530612244897901</v>
       </c>
-      <c r="S12" s="2">
+      <c r="W16" s="2">
         <v>4.0285714285714196</v>
       </c>
-      <c r="U12" t="s">
-        <v>7</v>
-      </c>
-      <c r="V12" s="2">
+      <c r="Z16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="2">
         <v>2.07641284160254</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AB16" s="2">
         <v>0.93877551020408101</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AC16" s="2">
         <v>1.4285714285714199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables/data_all.xlsx
+++ b/data/tables/data_all.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\census_privacy\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8941164-8766-4175-A137-032015BEA9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B88313-62C5-4885-A773-3A9DC26DE5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="620" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#uniques" sheetId="6" r:id="rId1"/>
-    <sheet name="reidentification-ppv" sheetId="1" r:id="rId2"/>
-    <sheet name="reidentification-tpr" sheetId="7" r:id="rId3"/>
-    <sheet name="reconstruction" sheetId="5" r:id="rId4"/>
-    <sheet name="accuracy" sheetId="8" r:id="rId5"/>
-    <sheet name="extents-random" sheetId="3" r:id="rId6"/>
-    <sheet name="extents-continuous" sheetId="2" r:id="rId7"/>
+    <sheet name="%uniques in non-zeros" sheetId="9" r:id="rId2"/>
+    <sheet name="%units with uniques" sheetId="10" r:id="rId3"/>
+    <sheet name="reidentification-ppv" sheetId="1" r:id="rId4"/>
+    <sheet name="reidentification-tpr" sheetId="7" r:id="rId5"/>
+    <sheet name="reconstruction" sheetId="5" r:id="rId6"/>
+    <sheet name="accuracy" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="21">
   <si>
     <t>Franklin</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>NHGIS</t>
-  </si>
-  <si>
-    <t>Iteration</t>
   </si>
   <si>
     <t>Aggregation level</t>
@@ -436,7 +433,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,20 +459,20 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -484,31 +481,31 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -575,7 +572,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -587,10 +584,10 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>1</v>
@@ -605,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
         <v>1</v>
@@ -620,7 +617,7 @@
         <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T4" t="s">
         <v>1</v>
@@ -635,7 +632,7 @@
         <v>158</v>
       </c>
       <c r="Y4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="s">
         <v>1</v>
@@ -661,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -720,10 +717,10 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -776,7 +773,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -791,7 +788,7 @@
         <v>1625</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -806,7 +803,7 @@
         <v>1625</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>1625</v>
       </c>
       <c r="S7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s">
         <v>1</v>
@@ -836,7 +833,7 @@
         <v>1625</v>
       </c>
       <c r="Y7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s">
         <v>1</v>
@@ -977,7 +974,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -992,7 +989,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -1007,7 +1004,7 @@
         <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
         <v>1</v>
@@ -1022,7 +1019,7 @@
         <v>445</v>
       </c>
       <c r="S10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s">
         <v>1</v>
@@ -1037,7 +1034,7 @@
         <v>1162</v>
       </c>
       <c r="Y10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s">
         <v>1</v>
@@ -1182,31 +1179,31 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="U15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AA15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
@@ -1273,7 +1270,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1288,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
         <v>1</v>
@@ -1303,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" t="s">
         <v>1</v>
@@ -1318,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T17" t="s">
         <v>1</v>
@@ -1333,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="Y17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="s">
         <v>1</v>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1489,7 +1486,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
         <v>1</v>
@@ -1504,7 +1501,7 @@
         <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
         <v>1</v>
@@ -1519,7 +1516,7 @@
         <v>62</v>
       </c>
       <c r="S20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s">
         <v>1</v>
@@ -1534,7 +1531,7 @@
         <v>62</v>
       </c>
       <c r="Y20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="s">
         <v>1</v>
@@ -1675,7 +1672,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1690,7 +1687,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>1</v>
@@ -1705,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
         <v>1</v>
@@ -1720,7 +1717,7 @@
         <v>32</v>
       </c>
       <c r="S23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T23" t="s">
         <v>1</v>
@@ -1735,7 +1732,7 @@
         <v>67</v>
       </c>
       <c r="Y23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s">
         <v>1</v>
@@ -1880,11 +1877,1232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1430209-C653-4B00-AF3B-0DCA8E1EB83C}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.3879250520471801E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.61677351825199E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.6086051353226902E-4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.11212874525709E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.1289798130334602E-4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.1651630811936099E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7.7849012167996801E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6.5031838504267699E-3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.8577376821651603E-3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2.5317283789087999E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2.1406313507654699E-2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.16030534351145E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>7.8503205547559796E-2</v>
+      </c>
+      <c r="X4" s="2">
+        <v>6.9502777401436094E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.0116988022654799E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.6874496103197998E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.1066200365200703E-4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.0623488309594096E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.97008973080757E-4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.4914115935749399E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5.6436441816715898E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.1814556331006897E-3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4.9673485809786097E-3</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2.1768341843590399E-2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1.9541375872382801E-2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.0677478258178301E-2</v>
+      </c>
+      <c r="W5" s="2">
+        <v>6.6021678760189897E-2</v>
+      </c>
+      <c r="X5" s="2">
+        <v>6.2811565304087699E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.7758851288262997E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.0564766447119298E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.5002850085502499E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5.3966540744738198E-4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3.3058268352386001E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3.0400912027360801E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3.2379924446842901E-3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6.6368889898301602E-3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.19703591107733E-2</v>
+      </c>
+      <c r="S6" s="2">
+        <v>7.0156502968159703E-3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.23905418023065E-2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>2.5840775223256601E-2</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1.1332973556394999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.23713646532438E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.4913541432741897E-4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.1228385358185401E-3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1.11856823266219E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4.4642857142857097E-3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4.7159218504379003E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2.9082774049217001E-2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3.5714285714285698E-2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>7.4107343364024202E-3</v>
+      </c>
+      <c r="W11" s="2">
+        <v>9.61968680089485E-2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4.6371435195919302E-4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.1592858798979799E-3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1.42045454545454E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>6.2111801242236003E-3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4.1734291676327299E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3.9772727272727203E-2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4.9689440993788803E-2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="2">
+        <v>8.1150011592858798E-3</v>
+      </c>
+      <c r="W12" s="2">
+        <v>9.9431818181818094E-2</v>
+      </c>
+      <c r="X12" s="2">
+        <v>3.7267080745341602E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.7119524870081602E-4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.7119524870081602E-4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.1135857461024401E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.0204081632653E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.2271714922048901E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2.5510204081632602E-2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="2">
+        <v>5.9391239792130597E-3</v>
+      </c>
+      <c r="W13" s="2">
+        <v>9.18367346938775E-2</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E71E3B-03DE-4E14-98B0-4AD010F98B94}">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.3800000000000002E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.5100000000000001E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.139E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.9165999999999999E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.1127E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.7910000000000002E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.124014</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.15493000000000001</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.5114000000000001E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.34272799999999998</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.45422499999999999</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3.4610000000000002E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.746336</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.84154899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.6999999999999998E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.382E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.446E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.0147E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.7606E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7.0530000000000002E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6.5389000000000003E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.10563400000000001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.3931000000000001E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.24238999999999999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.28169</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2.8913999999999999E-2</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.58286400000000005</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.68662000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0510000000000001E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.6369999999999996E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5.6950000000000004E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.8037999999999998E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.1434E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6.9899000000000003E-2</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2.0809999999999999E-2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.14092399999999999</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.8570999999999999E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.31E-4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1.3270000000000001E-3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5.5719999999999997E-3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.31428600000000001</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>8.7559999999999999E-3</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.31E-4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.3270000000000001E-3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4.7759999999999999E-3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.37142900000000001</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="2">
+        <v>9.2860000000000009E-3</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.65714300000000003</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7.9600000000000005E-4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5.7142999999999999E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.5920000000000001E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="2">
+        <v>4.2449999999999996E-3</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.45714300000000002</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1897,19 +3115,19 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -1917,31 +3135,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -2460,7 +3678,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2469,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2477,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2485,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -2493,7 +3711,7 @@
         <v>10</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -3005,12 +4223,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D702D47-6D24-47CF-969D-CEEE1D705472}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3023,19 +4241,19 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -3043,31 +4261,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -3580,7 +4798,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3589,7 +4807,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -3597,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -3605,7 +4823,7 @@
         <v>10</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -3613,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -4119,31 +5337,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0837C373-5E78-45C7-A2C7-C7C38E5AAB50}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -4151,31 +5369,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -4565,31 +5783,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AA12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -4935,11 +6153,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D90C929-9E3E-457B-8958-30D4BFDCDF7C}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
@@ -4947,19 +6165,19 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -4967,31 +6185,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -5396,31 +6614,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="U12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AA12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
@@ -5763,1231 +6981,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84976664-1F09-417B-9B19-CB0F33E1EF02}">
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5.6872037914691899E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.3773296669721901E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.3484602917341903E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.4992319508448503E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5.7275731244645599E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5.8317105667725702E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5.8592041976388197E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5.8108418074776298E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5.7719763410156999E-2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>5.7791095890410898E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <v>5.7895702145870198E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.3142437591776804E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.3367079115110594E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6.0417702635504701E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.2089664228099702E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6.4254616423960298E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6.4150943396226401E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>6.4018841665774498E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>6.2956717256885897E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.2270756918972901E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6.2335513948417097E-2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6.2467112681350002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.7796610169491497E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.9296375266524504E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6.5961199294532605E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6.9148936170212699E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6.7205444491705596E-2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6.6455138374757597E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6.6206275334033907E-2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6.6167782591571397E-2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>6.6052048080289402E-2</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6.5597975110736104E-2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>6.5689582454660403E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.5324757585654301E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.5684353532902202E-4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3.5077772456492198E-4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3.52484026249399E-4</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.5538353596989501E-4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3.5807859940837901E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3.57388664524978E-4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3.5902347173904597E-4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3.5566964855061E-4</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3.5671328753119101E-4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>3.56728449454307E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.5962657723535799E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4.5927812999411897E-3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4.5249505595499496E-3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4.5435328950321902E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4.56270987865748E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>4.5899665403943404E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4.5828880986892497E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4.6013296041339099E-3</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4.5613928365055402E-3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4.5775328026652802E-3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4.5780812323468903E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.7688205447410599E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4.9160037025310903E-2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4.8273881596618898E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.7664535308064603E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4.7798005166553199E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.8026293996958201E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4.79238064535671E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4.8178908135711497E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>4.8003323371124999E-2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>4.8092292068787297E-2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>4.8100399184210503E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.121775025799793</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.116535433070866</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.114642857142857</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.115895800106326</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.116935483870967</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.119047619047619</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.11736163760424501</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.116793181515514</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.11637315564017101</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0.115446285408872</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.115491452991453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.3809523809523801E-2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3.3333333333333298E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.9607843137254902E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.7094017094016999E-2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.4388489208633001E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2.39520958083832E-2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.59067357512953E-2</v>
-      </c>
-      <c r="L13" s="2">
-        <v>2.3923444976076499E-2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2.3809523809523801E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.5641025641025599E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3.6363636363636299E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.77777777777777E-2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2.1505376344085999E-2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1.8867924528301799E-2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.5748031496062902E-2</v>
-      </c>
-      <c r="J14" s="2">
-        <v>2.64900662251655E-2</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.8571428571428501E-2</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2.6315789473684199E-2</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2.6178010471204102E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.5714285714285698E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.77777777777777E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.04081632653061E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.5625E-2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1.3333333333333299E-2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1.0869565217391301E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.7857142857142801E-2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2.34375E-2</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2.1739130434782601E-2</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2.15827338129496E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.16354432857807E-4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.17015421637947E-4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.093032157888E-4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.07760738666412E-4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.07364206602703E-4</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1.06659028064474E-4</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1.08232918660904E-4</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.12223157564573E-4</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1.1194749624229901E-4</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.12388352779662E-4</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.12779502401815E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.6945216496411599E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.66272779294918E-3</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.51813860875236E-3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.52522268114498E-3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1.5379629213115201E-3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1.5323135079609799E-3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.56152446662434E-3</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1.6178780634781499E-3</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1.61459507153912E-3</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1.6120324580216399E-3</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.6187476132181E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.9536674092491501E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.9330533740714299E-2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.6687959132665499E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.6043492802801301E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.6128208048062701E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.5784474838786498E-2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.5423458160795E-2</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1.5889592128217701E-2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1.57237896452069E-2</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1.56025734932354E-2</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1.5682215782356599E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.12962962962962901</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8.5470085470085402E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>8.0645161290322495E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>7.8358208955223801E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>7.4534161490683204E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6.6157760814249303E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>6.6225165562913899E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <v>6.2135922330097001E-2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>5.8319039451114899E-2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>5.7187017001545597E-2</v>
-      </c>
-      <c r="M19" s="2">
-        <v>5.70107858243451E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D5C52-490D-4228-A03A-0A44F243A24C}">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.5238095238095205E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.2051282051282E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7.4719800747198001E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.9767441860465101E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6.4958828911253402E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6.1163785090165401E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5.9516351334419203E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5.8758417120191801E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5.8056003518545597E-2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>5.8978409689310098E-2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>5.7896369841762302E-2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5.7895702145870198E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.0322580645161199E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7.3333333333333306E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6.7526555386949905E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.58342792281498E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6.6421512296023902E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6.5160191920755298E-2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>6.3768780823488899E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>6.29421367676401E-2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6.4130699829309898E-2</v>
-      </c>
-      <c r="M4" s="2">
-        <v>6.2628885664095302E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>6.2467112681350002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3.7037037037037E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.4309133489461299E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8.0677290836653301E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7.7616424636955395E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7.68265914079648E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>7.2696172760316397E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>6.8550329105795393E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>6.4865553714795396E-2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6.7092651757188496E-2</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6.6074105804240696E-2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>6.5689582454660403E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.1066210059058598E-4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.5902923836708098E-4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.5108229623484498E-4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.81398548426007E-4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3.63224719056578E-4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.6633060243307001E-4</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3.59887050609597E-4</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3.6906695108301999E-4</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3.6704462009872E-4</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3.6372738419787799E-4</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3.5801277168568801E-4</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3.56728449454307E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4.40049428765109E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.5534999283001198E-3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.06740477748627E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.5184109392353297E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4.5307373993767799E-3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.64603260339903E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.5986396406570299E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4.7051136862980604E-3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4.6888970348994896E-3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4.6700631157140897E-3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4.5953879775975596E-3</v>
-      </c>
-      <c r="N7" s="2">
-        <v>4.5780812323468903E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.10365210485697E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.8938335519278E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.6254873173896806E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5.6935698944827702E-2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.4399305400030497E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5.2735153231142397E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5.0980116867062497E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5.0652670077148201E-2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4.96002304829775E-2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4.9348328836185798E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4.8293687384614301E-2</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4.8100399184210503E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.18032786885245899</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.16194331983805599</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.137994480220791</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.13467132053519401</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.124618204031765</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.119820109219402</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.118275418275418</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.117458866544789</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.116387741795261</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.115491452991453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.7027027027027001E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2.3809523809523801E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.3809523809523801E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2.8985507246376802E-2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5806451612903201E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.6178010471204102E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.8018018018018001E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.15827338129496E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.7623958799672798E-4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.9289054087146001E-4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.23975223180169E-4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.12779502401815E-4</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4.0813100295601697E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2.74335695828831E-3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.7738922899430401E-3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.6187476132181E-3</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4.1147387889524503E-2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2.9365274588582901E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1.7444737472524698E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.5682215782356599E-2</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>8.8235294117646995E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6.2937062937062901E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5.9047619047619002E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5.70107858243451E-2</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>